--- a/orbit-vc-api/orbit-vc-api/DatabaseDesign/OrbitVCDatabaseSchema.xlsx
+++ b/orbit-vc-api/orbit-vc-api/DatabaseDesign/OrbitVCDatabaseSchema.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanthtet.myet\Documents\01_Willowglen\B_001_Workplace\OrbitVC\orbit-vc-api\orbit-vc-api\DatabaseDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903C614F-680E-4F9F-9FD7-22923313A471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB339A1-67CF-432B-977C-67BEF9B40423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB4BDDAD-CEF0-4ED0-94FA-11B08D0D68E4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{EB4BDDAD-CEF0-4ED0-94FA-11B08D0D68E4}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="3" r:id="rId1"/>
+    <sheet name="Device" sheetId="10" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="87">
   <si>
     <t>User</t>
   </si>
@@ -108,6 +109,9 @@
     <t>ImageTypeID:  (FK from ImageType, not null)</t>
   </si>
   <si>
+    <t>Name: (nvarchar(100), not null)</t>
+  </si>
+  <si>
     <t>UserRoleID: (FK from UserRole, not null)</t>
   </si>
   <si>
@@ -147,7 +151,151 @@
     <t>CanDelete: (bool, not null)</t>
   </si>
   <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>ConnectionType</t>
+  </si>
+  <si>
+    <t>ConnectionTypeID: (FK from ConnectionType, not null)</t>
+  </si>
+  <si>
+    <t>DeviceID: (FK from Device, not null)</t>
+  </si>
+  <si>
+    <t>DeviceType</t>
+  </si>
+  <si>
+    <t>DeviceInterface</t>
+  </si>
+  <si>
+    <t>SpeedMbps: (nvarchar(20), not null)</t>
+  </si>
+  <si>
+    <t>IsEnabled: (bool, not null)</t>
+  </si>
+  <si>
+    <t>LastCheckedDate: (DateTime, not null)</t>
+  </si>
+  <si>
+    <t>ConnectionStatusType</t>
+  </si>
+  <si>
+    <t>ConnectionStatusTypeID: (FK from ConnectionStatusType, not null)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name: (nvarchar(100), not null) </t>
+  </si>
+  <si>
+    <t>DeviceTypeID: (FK from DeviceType, not null)</t>
+  </si>
+  <si>
+    <t>DeviceIPAddress</t>
+  </si>
+  <si>
+    <t>IPAddress: (nvarchar(100), not null)</t>
+  </si>
+  <si>
+    <t>DeviceIPAddressConnectionStatus</t>
+  </si>
+  <si>
+    <t>IPAddressType</t>
+  </si>
+  <si>
+    <t>IPAddressType: (FK from IPAddressType, not null)</t>
+  </si>
+  <si>
+    <t>DeviceIPAddressID: (FK from DeviceIPAddress, not null)</t>
+  </si>
+  <si>
+    <t>MACAddress: (nvarchar(100), null)</t>
+  </si>
+  <si>
+    <t>IP Address: (nvarchar(20), null)</t>
+  </si>
+  <si>
+    <t>SubnetMask : (nvarchar(20),  null)</t>
+  </si>
+  <si>
     <t>UserID: (nvarchar(100), not null)</t>
+  </si>
+  <si>
+    <t>OSType</t>
+  </si>
+  <si>
+    <t>OSTypeID: (FK from OSType, null)</t>
+  </si>
+  <si>
+    <t>WatchDirectory</t>
+  </si>
+  <si>
+    <t>ID               : UNIQUEIDENTIFIER (PK, NOT NULL)</t>
+  </si>
+  <si>
+    <t>DeviceID         : UNIQUEIDENTIFIER (FK → Device.ID, NOT NULL)</t>
+  </si>
+  <si>
+    <t>UNCPath          : NVARCHAR(500) NOT NULL</t>
+  </si>
+  <si>
+    <t>IsRecursive      : BIT NOT NULL</t>
+  </si>
+  <si>
+    <t>ScanIntervalSec  : INT NOT NULL</t>
+  </si>
+  <si>
+    <t>LastScanTimeUtc  : DATETIME NULL</t>
+  </si>
+  <si>
+    <t>IsEnabled        : BIT NOT NULL</t>
+  </si>
+  <si>
+    <t>Remark           : NVARCHAR(200) NULL</t>
+  </si>
+  <si>
+    <t>CreatedDate      : DATETIME NOT NULL</t>
+  </si>
+  <si>
+    <t>UpdatedDate      : DATETIME NOT NULL</t>
+  </si>
+  <si>
+    <t>CreatedBy        : UNIQUEIDENTIFIER NULL</t>
+  </si>
+  <si>
+    <t>UpdatedBy        : UNIQUEIDENTIFIER NULL</t>
+  </si>
+  <si>
+    <t>ID              : UNIQUEIDENTIFIER (PK, NOT NULL)</t>
+  </si>
+  <si>
+    <t>FileSnapshotID  : UNIQUEIDENTIFIER (FK → FileSnapshot.ID, NOT NULL)</t>
+  </si>
+  <si>
+    <t>VersionNo       : INT NOT NULL</t>
+  </si>
+  <si>
+    <t>FileHash        : CHAR(64) NOT NULL</t>
+  </si>
+  <si>
+    <t>FileSize        : BIGINT NOT NULL</t>
+  </si>
+  <si>
+    <t>DetectedUtc     : DATETIME NOT NULL</t>
+  </si>
+  <si>
+    <t>FileVersion(Version history)</t>
+  </si>
+  <si>
+    <t>FileChangeLog</t>
+  </si>
+  <si>
+    <t>ChangeType      : NVARCHAR(20) NOT NULL    -- Created / Modified / Deleted</t>
+  </si>
+  <si>
+    <t>DetectedTime     : DATETIME NOT NULL</t>
+  </si>
+  <si>
+    <t>HostName: (nvarchar(200), null)</t>
   </si>
 </sst>
 </file>
@@ -171,7 +319,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,6 +341,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -245,6 +405,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A56A3A2-9F47-4A03-BD8E-A94BF6CBF8B3}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="81" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,7 +764,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>1</v>
@@ -613,7 +775,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>18</v>
@@ -696,7 +858,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1"/>
     </row>
@@ -705,7 +867,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -721,7 +883,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -729,7 +891,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -742,13 +904,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C19" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="C20" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -766,7 +928,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C24" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -776,12 +938,12 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C26" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C27" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -791,25 +953,25 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C29" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
       <c r="C30" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D30" s="3"/>
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C31" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C32" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -819,12 +981,12 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C34" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C35" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -889,4 +1051,374 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03482BD9-51AC-404C-BB5D-51B53204AD65}">
+  <dimension ref="A1:F44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="68.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="11"/>
+    <col min="3" max="3" width="79.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="11"/>
+    <col min="5" max="5" width="48.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="11"/>
+    <col min="7" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="E9" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C15" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="C21" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="C26" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="C31" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="C36" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="C41" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C42" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C43" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C44" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/orbit-vc-api/orbit-vc-api/DatabaseDesign/OrbitVCDatabaseSchema.xlsx
+++ b/orbit-vc-api/orbit-vc-api/DatabaseDesign/OrbitVCDatabaseSchema.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanthtet.myet\Documents\01_Willowglen\B_001_Workplace\OrbitVC\orbit-vc-api\orbit-vc-api\DatabaseDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB339A1-67CF-432B-977C-67BEF9B40423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A837B5-2F01-403D-B1E1-D323B298CF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{EB4BDDAD-CEF0-4ED0-94FA-11B08D0D68E4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{EB4BDDAD-CEF0-4ED0-94FA-11B08D0D68E4}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="3" r:id="rId1"/>
     <sheet name="Device" sheetId="10" r:id="rId2"/>
+    <sheet name="FileVersionControl" sheetId="11" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="97">
   <si>
     <t>User</t>
   </si>
@@ -226,76 +227,106 @@
     <t>OSTypeID: (FK from OSType, null)</t>
   </si>
   <si>
-    <t>WatchDirectory</t>
-  </si>
-  <si>
-    <t>ID               : UNIQUEIDENTIFIER (PK, NOT NULL)</t>
-  </si>
-  <si>
-    <t>DeviceID         : UNIQUEIDENTIFIER (FK → Device.ID, NOT NULL)</t>
-  </si>
-  <si>
-    <t>UNCPath          : NVARCHAR(500) NOT NULL</t>
-  </si>
-  <si>
-    <t>IsRecursive      : BIT NOT NULL</t>
-  </si>
-  <si>
-    <t>ScanIntervalSec  : INT NOT NULL</t>
-  </si>
-  <si>
-    <t>LastScanTimeUtc  : DATETIME NULL</t>
-  </si>
-  <si>
-    <t>IsEnabled        : BIT NOT NULL</t>
-  </si>
-  <si>
-    <t>Remark           : NVARCHAR(200) NULL</t>
-  </si>
-  <si>
-    <t>CreatedDate      : DATETIME NOT NULL</t>
-  </si>
-  <si>
-    <t>UpdatedDate      : DATETIME NOT NULL</t>
-  </si>
-  <si>
-    <t>CreatedBy        : UNIQUEIDENTIFIER NULL</t>
-  </si>
-  <si>
-    <t>UpdatedBy        : UNIQUEIDENTIFIER NULL</t>
-  </si>
-  <si>
     <t>ID              : UNIQUEIDENTIFIER (PK, NOT NULL)</t>
   </si>
   <si>
-    <t>FileSnapshotID  : UNIQUEIDENTIFIER (FK → FileSnapshot.ID, NOT NULL)</t>
+    <t>HostName: (nvarchar(200), null)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MonitoredFile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MonitoredDirectory </t>
+  </si>
+  <si>
+    <t>DeviceID        : UNIQUEIDENTIFIER (FK → Device.ID, NOT NULL)</t>
+  </si>
+  <si>
+    <t>DirectoryPath   : NVARCHAR(500) NOT NULL</t>
+  </si>
+  <si>
+    <t>IsActive        : BIT NOT NULL</t>
+  </si>
+  <si>
+    <t>CreatedDate     : DATETIME NOT NULL</t>
+  </si>
+  <si>
+    <t>IsDeleted       : BOOL (NOT NULL)</t>
+  </si>
+  <si>
+    <t>ID                   : UNIQUEIDENTIFIER (PK, NOT NULL)</t>
+  </si>
+  <si>
+    <t>MonitoredDirectoryID : UNIQUEIDENTIFIER (FK → MonitoredDirectory.ID, NOT NULL)</t>
+  </si>
+  <si>
+    <t>FilePath             : NVARCHAR(500) NOT NULL</t>
+  </si>
+  <si>
+    <t>FileName             : NVARCHAR(500) NOT NULL</t>
+  </si>
+  <si>
+    <t>FileSize             : NVARCHAR(100) NULL</t>
+  </si>
+  <si>
+    <t>FileHash             : NVARCHAR(MAX) NULL</t>
+  </si>
+  <si>
+    <t>LastScan             : DATETIME NULL</t>
+  </si>
+  <si>
+    <t>IsDeleted             : BOOL (NOT NULL)</t>
+  </si>
+  <si>
+    <t>CreatedDate          : DATETIME NOT NULL</t>
+  </si>
+  <si>
+    <t>FileVersion</t>
+  </si>
+  <si>
+    <t>MonitoredFileID : UNIQUEIDENTIFIER (FK → MonitoredFile.ID, NOT NULL)</t>
   </si>
   <si>
     <t>VersionNo       : INT NOT NULL</t>
   </si>
   <si>
-    <t>FileHash        : CHAR(64) NOT NULL</t>
-  </si>
-  <si>
-    <t>FileSize        : BIGINT NOT NULL</t>
-  </si>
-  <si>
-    <t>DetectedUtc     : DATETIME NOT NULL</t>
-  </si>
-  <si>
-    <t>FileVersion(Version history)</t>
-  </si>
-  <si>
-    <t>FileChangeLog</t>
-  </si>
-  <si>
-    <t>ChangeType      : NVARCHAR(20) NOT NULL    -- Created / Modified / Deleted</t>
-  </si>
-  <si>
-    <t>DetectedTime     : DATETIME NOT NULL</t>
-  </si>
-  <si>
-    <t>HostName: (nvarchar(200), null)</t>
+    <t>ChangeType      : NVARCHAR(50) NOT NULL</t>
+  </si>
+  <si>
+    <t>FileSize        : NVARCHAR(100) NULL</t>
+  </si>
+  <si>
+    <t>FileHash        : NVARCHAR(MAX) NULL</t>
+  </si>
+  <si>
+    <t>DetectedDate    : DATETIME NOT NULL</t>
+  </si>
+  <si>
+    <t>FileContent</t>
+  </si>
+  <si>
+    <t>FileVersionID   : UNIQUEIDENTIFIER (FK → FileVersion.ID, NOT NULL)</t>
+  </si>
+  <si>
+    <t>FileData        : VARBINARY(MAX) NOT NULL</t>
+  </si>
+  <si>
+    <t>ScanLog</t>
+  </si>
+  <si>
+    <t>DirectoryID     : UNIQUEIDENTIFIER (FK → MonitoredDirectory.ID, NOT NULL)</t>
+  </si>
+  <si>
+    <t>ScanDate        : DATETIME NOT NULL</t>
+  </si>
+  <si>
+    <t>FilesScanned    : INT NOT NULL</t>
+  </si>
+  <si>
+    <t>ChangesDetected : INT NOT NULL</t>
+  </si>
+  <si>
+    <t>Status          : NVARCHAR(50) NOT NULL</t>
   </si>
 </sst>
 </file>
@@ -1055,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03482BD9-51AC-404C-BB5D-51B53204AD65}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E59" sqref="E17:E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1067,7 +1098,7 @@
     <col min="2" max="2" width="8.88671875" style="11"/>
     <col min="3" max="3" width="79.6640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="11"/>
-    <col min="5" max="5" width="48.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="97.21875" style="4" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="11"/>
     <col min="7" max="16384" width="8.88671875" style="4"/>
   </cols>
@@ -1134,7 +1165,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>29</v>
@@ -1223,200 +1254,374 @@
       <c r="A17" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="C21" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>70</v>
-      </c>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-      <c r="C26" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="C29" s="8"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="C31" s="7" t="s">
-        <v>82</v>
-      </c>
+      <c r="C31" s="5"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>76</v>
-      </c>
+      <c r="C32" s="5"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="C33" s="5"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="C34" s="5"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="C35" s="5"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="C36" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="C36" s="5"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>81</v>
-      </c>
+      <c r="C37" s="5"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="1"/>
+      <c r="C38" s="5"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>83</v>
-      </c>
+      <c r="C39" s="8"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>76</v>
-      </c>
+      <c r="C40" s="9"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="5"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C42" s="5"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C43" s="5"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C44" s="5"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C45" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C6EB86-2E12-4B2F-94A8-ED4D3D4990B7}">
+  <dimension ref="A1:A43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection sqref="A1:A43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="141.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11"/>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C42" s="4" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C43" s="4" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C44" s="11"/>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/orbit-vc-api/orbit-vc-api/DatabaseDesign/OrbitVCDatabaseSchema.xlsx
+++ b/orbit-vc-api/orbit-vc-api/DatabaseDesign/OrbitVCDatabaseSchema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanthtet.myet\Documents\01_Willowglen\B_001_Workplace\OrbitVC\orbit-vc-api\orbit-vc-api\DatabaseDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A837B5-2F01-403D-B1E1-D323B298CF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E833005D-E0A0-46DD-952A-DD59EA308C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{EB4BDDAD-CEF0-4ED0-94FA-11B08D0D68E4}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="2" xr2:uid="{EB4BDDAD-CEF0-4ED0-94FA-11B08D0D68E4}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="98">
   <si>
     <t>User</t>
   </si>
@@ -167,15 +167,6 @@
     <t>DeviceType</t>
   </si>
   <si>
-    <t>DeviceInterface</t>
-  </si>
-  <si>
-    <t>SpeedMbps: (nvarchar(20), not null)</t>
-  </si>
-  <si>
-    <t>IsEnabled: (bool, not null)</t>
-  </si>
-  <si>
     <t>LastCheckedDate: (DateTime, not null)</t>
   </si>
   <si>
@@ -185,9 +176,6 @@
     <t>ConnectionStatusTypeID: (FK from ConnectionStatusType, not null)</t>
   </si>
   <si>
-    <t xml:space="preserve">Name: (nvarchar(100), not null) </t>
-  </si>
-  <si>
     <t>DeviceTypeID: (FK from DeviceType, not null)</t>
   </si>
   <si>
@@ -209,15 +197,6 @@
     <t>DeviceIPAddressID: (FK from DeviceIPAddress, not null)</t>
   </si>
   <si>
-    <t>MACAddress: (nvarchar(100), null)</t>
-  </si>
-  <si>
-    <t>IP Address: (nvarchar(20), null)</t>
-  </si>
-  <si>
-    <t>SubnetMask : (nvarchar(20),  null)</t>
-  </si>
-  <si>
     <t>UserID: (nvarchar(100), not null)</t>
   </si>
   <si>
@@ -281,52 +260,76 @@
     <t>CreatedDate          : DATETIME NOT NULL</t>
   </si>
   <si>
-    <t>FileVersion</t>
-  </si>
-  <si>
     <t>MonitoredFileID : UNIQUEIDENTIFIER (FK → MonitoredFile.ID, NOT NULL)</t>
   </si>
   <si>
-    <t>VersionNo       : INT NOT NULL</t>
-  </si>
-  <si>
-    <t>ChangeType      : NVARCHAR(50) NOT NULL</t>
-  </si>
-  <si>
-    <t>FileSize        : NVARCHAR(100) NULL</t>
-  </si>
-  <si>
-    <t>FileHash        : NVARCHAR(MAX) NULL</t>
-  </si>
-  <si>
-    <t>DetectedDate    : DATETIME NOT NULL</t>
-  </si>
-  <si>
-    <t>FileContent</t>
-  </si>
-  <si>
-    <t>FileVersionID   : UNIQUEIDENTIFIER (FK → FileVersion.ID, NOT NULL)</t>
-  </si>
-  <si>
-    <t>FileData        : VARBINARY(MAX) NOT NULL</t>
-  </si>
-  <si>
-    <t>ScanLog</t>
-  </si>
-  <si>
-    <t>DirectoryID     : UNIQUEIDENTIFIER (FK → MonitoredDirectory.ID, NOT NULL)</t>
-  </si>
-  <si>
-    <t>ScanDate        : DATETIME NOT NULL</t>
-  </si>
-  <si>
-    <t>FilesScanned    : INT NOT NULL</t>
-  </si>
-  <si>
-    <t>ChangesDetected : INT NOT NULL</t>
-  </si>
-  <si>
-    <t>Status          : NVARCHAR(50) NOT NULL</t>
+    <t>ID                          : UNIQUEIDENTIFIER (PK, NOT NULL)</t>
+  </si>
+  <si>
+    <t>DeviceIPAddressStatusID     : UNIQUEIDENTIFIER (FK → DeviceIPAddressConnectionStatus.ID, NOT NULL)</t>
+  </si>
+  <si>
+    <t>AlertType                   : NVARCHAR(50) NOT NULL   -- UP / DOWN</t>
+  </si>
+  <si>
+    <t>Message                      : NVARCHAR(500) NOT NULL</t>
+  </si>
+  <si>
+    <t>IsCleared                   : BIT NOT NULL</t>
+  </si>
+  <si>
+    <t>CreatedDate                 : DATETIME NOT NULL</t>
+  </si>
+  <si>
+    <t>ClearedDate                  : DATETIME NULL</t>
+  </si>
+  <si>
+    <t>ClearedBy                    : NVARCHAR(100) NULL</t>
+  </si>
+  <si>
+    <t>DeviceAlert</t>
+  </si>
+  <si>
+    <t>IsAcknowledged             : BIT NOT NULL</t>
+  </si>
+  <si>
+    <t>AcknowledgedDate           : DATETIME NULL</t>
+  </si>
+  <si>
+    <t>AcknowledgedBy             : NVARCHAR(100) NULL</t>
+  </si>
+  <si>
+    <t>MonitoredFileAlert</t>
+  </si>
+  <si>
+    <t>AlertType       : NVARCHAR(50) NOT NULL   -- MODIFIED / DELETED / CREATED</t>
+  </si>
+  <si>
+    <t>Message         : NVARCHAR(500) NOT NULL</t>
+  </si>
+  <si>
+    <t>IsAcknowledged : BIT NOT NULL</t>
+  </si>
+  <si>
+    <t>AcknowledgedDate : DATETIME NULL</t>
+  </si>
+  <si>
+    <t>AcknowledgedBy   : NVARCHAR(100) NULL</t>
+  </si>
+  <si>
+    <t>IsCleared       : BIT NOT NULL</t>
+  </si>
+  <si>
+    <t>ClearedDate     : DATETIME NULL</t>
+  </si>
+  <si>
+    <t>ClearedBy       : NVARCHAR(100) NULL</t>
+  </si>
+  <si>
+    <t>FileDateModified: DateTime Not Null</t>
+  </si>
+  <si>
+    <t>StoredDirectory : NVARCHAR(MAX) NOT NULL</t>
   </si>
 </sst>
 </file>
@@ -350,7 +353,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,18 +380,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -411,11 +408,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -437,7 +445,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -806,7 +821,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>18</v>
@@ -1088,35 +1103,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03482BD9-51AC-404C-BB5D-51B53204AD65}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E59" sqref="E17:E59"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="68.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="11"/>
+    <col min="2" max="2" width="8.88671875" style="10"/>
     <col min="3" max="3" width="79.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="11"/>
+    <col min="4" max="4" width="8.88671875" style="10"/>
     <col min="5" max="5" width="97.21875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="11"/>
+    <col min="6" max="6" width="8.88671875" style="10"/>
     <col min="7" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="E1" s="10"/>
+    <row r="1" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1127,7 +1140,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1138,18 +1151,18 @@
         <v>41</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1157,41 +1170,41 @@
         <v>24</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="12"/>
       <c r="E9" s="4" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1199,10 +1212,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1213,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1221,16 +1234,21 @@
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1240,19 +1258,23 @@
       <c r="C14" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="E14" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C15" s="4" t="s">
-        <v>46</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="C16" s="12"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C17" s="9"/>
     </row>
@@ -1280,7 +1302,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C22" s="5"/>
     </row>
@@ -1308,7 +1330,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C27" s="5"/>
     </row>
@@ -1409,219 +1431,223 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C6EB86-2E12-4B2F-94A8-ED4D3D4990B7}">
-  <dimension ref="A1:A43"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection sqref="A1:A43"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="141.5546875" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="13"/>
+    <col min="3" max="3" width="75.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11"/>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="C12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="C15" s="10"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>79</v>
+      <c r="A18" s="14" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
+      <c r="A20" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>81</v>
+      <c r="A21" s="14" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="A22" s="10"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="A23" s="5"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>83</v>
-      </c>
+      <c r="A24" s="5"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>84</v>
-      </c>
+      <c r="A25" s="5"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="A26" s="5"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>86</v>
-      </c>
+      <c r="A27" s="5"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="A28" s="5"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
+      <c r="A29" s="5"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
-        <v>88</v>
-      </c>
+      <c r="A30" s="9"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="A31" s="5"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="A32" s="5"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="A33" s="5"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>70</v>
-      </c>
+      <c r="A34" s="5"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
+      <c r="A35" s="5"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
-        <v>91</v>
-      </c>
+      <c r="A36" s="9"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="A37" s="5"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A38" s="5"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="A39" s="5"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>94</v>
-      </c>
+      <c r="A40" s="5"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>95</v>
-      </c>
+      <c r="A41" s="5"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>96</v>
-      </c>
+      <c r="A42" s="5"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="11"/>
+      <c r="A43" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/orbit-vc-api/orbit-vc-api/DatabaseDesign/OrbitVCDatabaseSchema.xlsx
+++ b/orbit-vc-api/orbit-vc-api/DatabaseDesign/OrbitVCDatabaseSchema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanthtet.myet\Documents\01_Willowglen\B_001_Workplace\OrbitVC\orbit-vc-api\orbit-vc-api\DatabaseDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E833005D-E0A0-46DD-952A-DD59EA308C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2A6D19-0C59-4A2C-B305-306944ECDE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="2" xr2:uid="{EB4BDDAD-CEF0-4ED0-94FA-11B08D0D68E4}"/>
+    <workbookView xWindow="28665" yWindow="-135" windowWidth="29070" windowHeight="15750" activeTab="2" xr2:uid="{EB4BDDAD-CEF0-4ED0-94FA-11B08D0D68E4}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="101">
   <si>
     <t>User</t>
   </si>
@@ -245,12 +245,6 @@
     <t>FileName             : NVARCHAR(500) NOT NULL</t>
   </si>
   <si>
-    <t>FileSize             : NVARCHAR(100) NULL</t>
-  </si>
-  <si>
-    <t>FileHash             : NVARCHAR(MAX) NULL</t>
-  </si>
-  <si>
     <t>LastScan             : DATETIME NULL</t>
   </si>
   <si>
@@ -263,6 +257,18 @@
     <t>MonitoredFileID : UNIQUEIDENTIFIER (FK → MonitoredFile.ID, NOT NULL)</t>
   </si>
   <si>
+    <t>VersionNo       : INT NOT NULL</t>
+  </si>
+  <si>
+    <t>FileSize        : NVARCHAR(100) NULL</t>
+  </si>
+  <si>
+    <t>FileHash        : NVARCHAR(MAX) NULL</t>
+  </si>
+  <si>
+    <t>DetectedDate    : DATETIME NOT NULL</t>
+  </si>
+  <si>
     <t>ID                          : UNIQUEIDENTIFIER (PK, NOT NULL)</t>
   </si>
   <si>
@@ -330,6 +336,9 @@
   </si>
   <si>
     <t>StoredDirectory : NVARCHAR(MAX) NOT NULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MonitoredFileVersion </t>
   </si>
 </sst>
 </file>
@@ -423,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -453,6 +462,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1129,7 +1141,7 @@
         <v>47</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1140,7 +1152,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1151,7 +1163,7 @@
         <v>41</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1162,7 +1174,7 @@
         <v>51</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1173,7 +1185,7 @@
         <v>48</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1184,7 +1196,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1195,7 +1207,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1204,7 +1216,7 @@
       </c>
       <c r="C9" s="12"/>
       <c r="E9" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1215,7 +1227,7 @@
         <v>49</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1226,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1237,7 +1249,7 @@
         <v>52</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1248,7 +1260,7 @@
         <v>45</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1433,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C6EB86-2E12-4B2F-94A8-ED4D3D4990B7}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1453,7 +1465,7 @@
         <v>59</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1469,7 +1481,7 @@
         <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1482,7 +1494,7 @@
         <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1490,7 +1502,7 @@
         <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1498,13 +1510,13 @@
         <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1512,7 +1524,7 @@
         <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1520,7 +1532,7 @@
         <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1533,100 +1545,96 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>70</v>
-      </c>
+      <c r="A16" s="10"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>71</v>
+      <c r="A17" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
-        <v>96</v>
+      <c r="A18" s="15" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="15" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
+      <c r="A22" s="15" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
+      <c r="A23" s="15" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
+      <c r="A24" s="15" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
+      <c r="A25" s="14" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
+      <c r="A26" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
+      <c r="A27" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
+      <c r="A28" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
+      <c r="A29" s="4" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
+      <c r="A30" s="10"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
@@ -1651,5 +1659,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/orbit-vc-api/orbit-vc-api/DatabaseDesign/OrbitVCDatabaseSchema.xlsx
+++ b/orbit-vc-api/orbit-vc-api/DatabaseDesign/OrbitVCDatabaseSchema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanthtet.myet\Documents\01_Willowglen\B_001_Workplace\OrbitVC\orbit-vc-api\orbit-vc-api\DatabaseDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2A6D19-0C59-4A2C-B305-306944ECDE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7C20A4-ED54-4B02-81E0-6176AF165033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28665" yWindow="-135" windowWidth="29070" windowHeight="15750" activeTab="2" xr2:uid="{EB4BDDAD-CEF0-4ED0-94FA-11B08D0D68E4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="97">
   <si>
     <t>User</t>
   </si>
@@ -215,33 +215,18 @@
     <t xml:space="preserve">MonitoredFile </t>
   </si>
   <si>
-    <t xml:space="preserve">MonitoredDirectory </t>
-  </si>
-  <si>
     <t>DeviceID        : UNIQUEIDENTIFIER (FK → Device.ID, NOT NULL)</t>
   </si>
   <si>
     <t>DirectoryPath   : NVARCHAR(500) NOT NULL</t>
   </si>
   <si>
-    <t>IsActive        : BIT NOT NULL</t>
-  </si>
-  <si>
     <t>CreatedDate     : DATETIME NOT NULL</t>
   </si>
   <si>
-    <t>IsDeleted       : BOOL (NOT NULL)</t>
-  </si>
-  <si>
     <t>ID                   : UNIQUEIDENTIFIER (PK, NOT NULL)</t>
   </si>
   <si>
-    <t>MonitoredDirectoryID : UNIQUEIDENTIFIER (FK → MonitoredDirectory.ID, NOT NULL)</t>
-  </si>
-  <si>
-    <t>FilePath             : NVARCHAR(500) NOT NULL</t>
-  </si>
-  <si>
     <t>FileName             : NVARCHAR(500) NOT NULL</t>
   </si>
   <si>
@@ -339,6 +324,9 @@
   </si>
   <si>
     <t xml:space="preserve">MonitoredFileVersion </t>
+  </si>
+  <si>
+    <t>AbsoluteDirectory : NVARCHAR(500) NOT NULL</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1129,7 @@
         <v>47</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1152,7 +1140,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1163,7 +1151,7 @@
         <v>41</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1174,7 +1162,7 @@
         <v>51</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1185,7 +1173,7 @@
         <v>48</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1196,7 +1184,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1207,7 +1195,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1216,7 +1204,7 @@
       </c>
       <c r="C9" s="12"/>
       <c r="E9" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1227,7 +1215,7 @@
         <v>49</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1238,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1249,7 +1237,7 @@
         <v>52</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1260,7 +1248,7 @@
         <v>45</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1446,7 +1434,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1462,15 +1450,15 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
         <v>56</v>
@@ -1478,163 +1466,130 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="10"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="C9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="10"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
-        <v>75</v>
+      <c r="A22" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
+      <c r="A24" s="10"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>

--- a/orbit-vc-api/orbit-vc-api/DatabaseDesign/OrbitVCDatabaseSchema.xlsx
+++ b/orbit-vc-api/orbit-vc-api/DatabaseDesign/OrbitVCDatabaseSchema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanthtet.myet\Documents\01_Willowglen\B_001_Workplace\OrbitVC\orbit-vc-api\orbit-vc-api\DatabaseDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7C20A4-ED54-4B02-81E0-6176AF165033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E6F3EC-28FA-4C3D-9116-75170427F22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28665" yWindow="-135" windowWidth="29070" windowHeight="15750" activeTab="2" xr2:uid="{EB4BDDAD-CEF0-4ED0-94FA-11B08D0D68E4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="98">
   <si>
     <t>User</t>
   </si>
@@ -218,9 +218,6 @@
     <t>DeviceID        : UNIQUEIDENTIFIER (FK → Device.ID, NOT NULL)</t>
   </si>
   <si>
-    <t>DirectoryPath   : NVARCHAR(500) NOT NULL</t>
-  </si>
-  <si>
     <t>CreatedDate     : DATETIME NOT NULL</t>
   </si>
   <si>
@@ -327,6 +324,12 @@
   </si>
   <si>
     <t>AbsoluteDirectory : NVARCHAR(500) NOT NULL</t>
+  </si>
+  <si>
+    <t>ParentDirecotry   : NVARCHAR(MAX) NOT NULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MonitoredFileChangeHistory </t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1132,7 @@
         <v>47</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1140,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1151,7 +1154,7 @@
         <v>41</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1162,7 +1165,7 @@
         <v>51</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1173,7 +1176,7 @@
         <v>48</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1184,7 +1187,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1195,7 +1198,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1204,7 +1207,7 @@
       </c>
       <c r="C9" s="12"/>
       <c r="E9" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1215,7 +1218,7 @@
         <v>49</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1226,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1237,7 +1240,7 @@
         <v>52</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1248,7 +1251,7 @@
         <v>45</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1433,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C6EB86-2E12-4B2F-94A8-ED4D3D4990B7}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1453,12 +1456,12 @@
         <v>58</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
         <v>56</v>
@@ -1469,42 +1472,42 @@
         <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1512,84 +1515,143 @@
         <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="C22" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="C23" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C24" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C26" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C27" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C28" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C29" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C30" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C31" s="10"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>

--- a/orbit-vc-api/orbit-vc-api/DatabaseDesign/OrbitVCDatabaseSchema.xlsx
+++ b/orbit-vc-api/orbit-vc-api/DatabaseDesign/OrbitVCDatabaseSchema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanthtet.myet\Documents\01_Willowglen\B_001_Workplace\OrbitVC\orbit-vc-api\orbit-vc-api\DatabaseDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E6F3EC-28FA-4C3D-9116-75170427F22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199660A5-E1A7-4F56-94C7-1395DA6D4969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28665" yWindow="-135" windowWidth="29070" windowHeight="15750" activeTab="2" xr2:uid="{EB4BDDAD-CEF0-4ED0-94FA-11B08D0D68E4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{EB4BDDAD-CEF0-4ED0-94FA-11B08D0D68E4}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="99">
   <si>
     <t>User</t>
   </si>
@@ -330,6 +330,9 @@
   </si>
   <si>
     <t xml:space="preserve">MonitoredFileChangeHistory </t>
+  </si>
+  <si>
+    <t>MonitoredFileVersionID : UNIQUEIDENTIFIER (FK → MonitoredFileVersion.ID, NOT NULL)</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -452,10 +455,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1436,13 +1436,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C6EB86-2E12-4B2F-94A8-ED4D3D4990B7}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:C30"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="141.5546875" customWidth="1"/>
+    <col min="1" max="1" width="89.77734375" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="13"/>
     <col min="3" max="3" width="75.44140625" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="13"/>
@@ -1511,7 +1511,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="11" t="s">
         <v>56</v>
       </c>
       <c r="C10" t="s">
@@ -1519,7 +1519,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="11" t="s">
         <v>66</v>
       </c>
       <c r="C11" t="s">
@@ -1527,7 +1527,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="11" t="s">
         <v>67</v>
       </c>
       <c r="C12" t="s">
@@ -1543,7 +1543,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="11" t="s">
         <v>68</v>
       </c>
       <c r="C14" t="s">
@@ -1551,13 +1551,13 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="11" t="s">
         <v>69</v>
       </c>
       <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="11" t="s">
         <v>70</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1568,7 +1568,7 @@
       <c r="A17" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="11" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1576,7 +1576,7 @@
       <c r="A18" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1584,12 +1584,15 @@
       <c r="A19" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="C19" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="11" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1605,18 +1608,18 @@
       <c r="A22" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="11" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="11" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="11" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1627,51 +1630,51 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C26" s="4" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C27" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C28" s="10"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C32" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C28" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C29" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C30" s="4" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C31" s="10"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C34" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
     </row>
   </sheetData>

--- a/orbit-vc-api/orbit-vc-api/DatabaseDesign/OrbitVCDatabaseSchema.xlsx
+++ b/orbit-vc-api/orbit-vc-api/DatabaseDesign/OrbitVCDatabaseSchema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanthtet.myet\Documents\01_Willowglen\B_001_Workplace\OrbitVC\orbit-vc-api\orbit-vc-api\DatabaseDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199660A5-E1A7-4F56-94C7-1395DA6D4969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5282771E-A2F0-4069-A672-C5D52C5D9510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{EB4BDDAD-CEF0-4ED0-94FA-11B08D0D68E4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{EB4BDDAD-CEF0-4ED0-94FA-11B08D0D68E4}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="FileVersionControl" sheetId="11" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="99">
   <si>
     <t>User</t>
   </si>
@@ -388,7 +389,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -411,22 +412,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -454,8 +444,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1436,21 +1424,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C6EB86-2E12-4B2F-94A8-ED4D3D4990B7}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="89.77734375" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="13"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="13"/>
+    <col min="1" max="1" width="89.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="10"/>
+    <col min="3" max="3" width="75.44140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="10"/>
+    <col min="5" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10"/>
-    </row>
+    <row r="1" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>58</v>
@@ -1463,7 +1450,7 @@
       <c r="A3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1471,7 +1458,7 @@
       <c r="A4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1484,7 +1471,7 @@
       <c r="A6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1492,13 +1479,13 @@
       <c r="A7" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1506,7 +1493,7 @@
       <c r="A9" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1514,7 +1501,7 @@
       <c r="A10" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1522,7 +1509,7 @@
       <c r="A11" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1530,15 +1517,15 @@
       <c r="A12" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1546,7 +1533,7 @@
       <c r="A14" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1565,7 +1552,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -1584,7 +1571,7 @@
       <c r="A19" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1600,7 +1587,7 @@
       <c r="A21" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1624,7 +1611,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="4" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1641,40 +1628,25 @@
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C28" s="10"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C32" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C33" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C34" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
     </row>
   </sheetData>
